--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_4.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1525343.807663948</v>
+        <v>-1531780.332239534</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516696</v>
+        <v>2280223.65389273</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791242</v>
+        <v>419463.0933791246</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13664833.6427806</v>
+        <v>13664243.66339019</v>
       </c>
     </row>
     <row r="11">
@@ -659,16 +659,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>9.031127956876844</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>26.93091308590075</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>0.03668334772410162</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -744,19 +744,19 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>69.98930104615592</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
-        <v>187.4140068734885</v>
+        <v>40.66635337780762</v>
       </c>
       <c r="Y3" t="n">
         <v>177.5210747552478</v>
@@ -820,25 +820,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>8.527119728565358</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>176.7012241514006</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>316.3682574994579</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -902,10 +902,10 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>99.72418974505052</v>
       </c>
       <c r="G5" t="n">
         <v>9.031127956876844</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>100.8695783184697</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
         <v>135.0820259802211</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
         <v>175.2139736830806</v>
@@ -1035,13 +1035,13 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
-        <v>177.5210747552478</v>
+        <v>123.5074686873918</v>
       </c>
     </row>
     <row r="7">
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>23.94874802705388</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>16.84284594684198</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>304.0074039714629</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>40.73273817917578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>120.7964963984689</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>113.1667354347866</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1370,25 +1370,25 @@
         <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>318.1654340873668</v>
       </c>
       <c r="D11" t="n">
         <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F11" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>337.952815562145</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>120.096196884256</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372788</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.770107113628</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>6.897481179122366</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1430,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993873</v>
+        <v>97.42475435993879</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177846</v>
+        <v>82.99846957177851</v>
       </c>
       <c r="E13" t="n">
-        <v>6.337029233038251</v>
+        <v>82.92491162465762</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442484</v>
+        <v>84.67436304442489</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681697</v>
+        <v>95.49320096681703</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338907</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.685168714561</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901692</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>56.19364793320733</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V13" t="n">
         <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534022</v>
+        <v>209.4187856534023</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,10 +1610,10 @@
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F14" t="n">
         <v>341.6471816905901</v>
@@ -1625,7 +1625,7 @@
         <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372791</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362803</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>6.897481179122366</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>209.4439979284604</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993876</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177849</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465755</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442487</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681696</v>
+        <v>87.16751742380525</v>
       </c>
       <c r="H16" t="n">
-        <v>82.845453133389</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456093</v>
+        <v>60.68516871456097</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901685</v>
+        <v>51.58366707901689</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1825,13 +1825,13 @@
         <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
-        <v>139.7591177283725</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799666</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C26" t="n">
-        <v>295.2524720077824</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D26" t="n">
-        <v>287.5954430211826</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603046</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F26" t="n">
-        <v>318.7342196110057</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G26" t="n">
-        <v>315.0398534825605</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H26" t="n">
-        <v>226.8509454548579</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414353</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404365</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T26" t="n">
-        <v>127.2743219418612</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U26" t="n">
-        <v>159.2039277954311</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V26" t="n">
-        <v>244.6944667292005</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.2977702070791</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
-        <v>291.5668045419574</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142886</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007198</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035438</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219411</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507322</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484049</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723262</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380467</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I28" t="n">
-        <v>37.7722066349766</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943252</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049598</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391319</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
-        <v>188.5931293662018</v>
+        <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530677</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W28" t="n">
-        <v>186.5058235738178</v>
+        <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205304</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y28" t="n">
-        <v>126.8896660972068</v>
+        <v>126.8896660972066</v>
       </c>
     </row>
     <row r="29">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542123</v>
+        <v>283.7098784815729</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820281</v>
+        <v>276.4638267093887</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954283</v>
+        <v>268.8067977227889</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345503</v>
+        <v>285.7777698619109</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852514</v>
+        <v>299.945574312612</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568062</v>
+        <v>296.2512081841668</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291036</v>
+        <v>208.0623001564642</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838921</v>
+        <v>24.1738259657498</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828933</v>
+        <v>52.06849973564992</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161069</v>
+        <v>108.4856766434675</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696768</v>
+        <v>140.4152824970374</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034462</v>
+        <v>225.9058214308068</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813248</v>
+        <v>254.5091249086854</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162031</v>
+        <v>272.7781592435637</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885343</v>
+        <v>279.7458822158949</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431766</v>
+        <v>70.57601873167825</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945460006</v>
+        <v>55.72314698196065</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643979</v>
+        <v>41.29686219380038</v>
       </c>
       <c r="E34" t="n">
-        <v>47.6667667193189</v>
+        <v>41.22330424667949</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908617</v>
+        <v>42.97275566644676</v>
       </c>
       <c r="G34" t="n">
-        <v>60.2350560614783</v>
+        <v>53.79159358883889</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805035</v>
+        <v>41.14384575541094</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922228</v>
+        <v>18.98356133658287</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367819</v>
+        <v>9.882059701038784</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920551</v>
+        <v>88.0080032065661</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133776</v>
+        <v>120.5819415407382</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404475</v>
+        <v>169.8044840678081</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273134</v>
+        <v>150.539631954674</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480635</v>
+        <v>167.7171782754241</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947761</v>
+        <v>118.9595992221367</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714525</v>
+        <v>108.1010207988131</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
@@ -3509,7 +3509,7 @@
         <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F38" t="n">
         <v>282.3655247697376</v>
@@ -3521,7 +3521,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
         <v>236.929075365811</v>
@@ -3569,7 +3569,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380507</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357234</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596447</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U40" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
         <v>132.9595824117996</v>
@@ -3727,7 +3727,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C41" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E41" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F41" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277547</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U41" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X41" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C43" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380504</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357231</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596444</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="44">
@@ -3977,25 +3977,25 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
         <v>251.2267481799146</v>
       </c>
       <c r="E44" t="n">
-        <v>268.1977203190366</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875521</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277564</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059319</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U44" t="n">
-        <v>122.8352329541631</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880397</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908638</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D46" t="n">
-        <v>23.7168126509261</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380521</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357248</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596462</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253666</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708589</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369182</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
-        <v>152.2244345249338</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325499</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593878</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1709.092367800868</v>
+        <v>1332.523728922454</v>
       </c>
       <c r="C2" t="n">
-        <v>1315.916866303798</v>
+        <v>1332.523728922454</v>
       </c>
       <c r="D2" t="n">
-        <v>930.4757375204661</v>
+        <v>1332.523728922454</v>
       </c>
       <c r="E2" t="n">
-        <v>527.8922126370106</v>
+        <v>929.940204038998</v>
       </c>
       <c r="F2" t="n">
-        <v>515.0381782073924</v>
+        <v>513.0457655689758</v>
       </c>
       <c r="G2" t="n">
-        <v>505.9158267357996</v>
+        <v>503.923414097383</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022903</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475507</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035832</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310451</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L2" t="n">
-        <v>547.1277883310451</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M2" t="n">
-        <v>673.899032935493</v>
+        <v>1552.058346020845</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.710316572955</v>
+        <v>2065.661024630534</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465283</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596805</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737754</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023276</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S2" t="n">
-        <v>2109.587113512265</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T2" t="n">
-        <v>2109.587113512265</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="U2" t="n">
-        <v>2109.587113512265</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="V2" t="n">
-        <v>2109.587113512265</v>
+        <v>1733.05552852044</v>
       </c>
       <c r="W2" t="n">
-        <v>2109.587113512265</v>
+        <v>1733.01847463385</v>
       </c>
       <c r="X2" t="n">
-        <v>2109.587113512265</v>
+        <v>1733.01847463385</v>
       </c>
       <c r="Y2" t="n">
-        <v>2109.587113512265</v>
+        <v>1733.01847463385</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021488</v>
+        <v>704.4227390072571</v>
       </c>
       <c r="C3" t="n">
-        <v>505.159187462241</v>
+        <v>553.7685085673493</v>
       </c>
       <c r="D3" t="n">
-        <v>375.0702200837213</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="E3" t="n">
-        <v>238.623729194609</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>114.1919230777408</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>114.1919230777408</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>43.49565939475507</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475507</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144825</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767089</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>959.9158735750221</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M3" t="n">
-        <v>1018.276226875485</v>
+        <v>1471.526139546294</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875485</v>
+        <v>1985.128818155982</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466466</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182863</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737754</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635818</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535687</v>
+        <v>1916.314617614855</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734595</v>
+        <v>1739.330805813764</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413237</v>
+        <v>1529.267662492405</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784304</v>
+        <v>1306.727660863472</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917591</v>
+        <v>1076.610414996759</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692676028</v>
+        <v>1035.533290372711</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431101</v>
+        <v>856.2190734482184</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>500.4772517557169</v>
+        <v>391.5321323606162</v>
       </c>
       <c r="C4" t="n">
-        <v>500.4772517557169</v>
+        <v>391.5321323606162</v>
       </c>
       <c r="D4" t="n">
-        <v>344.8441386582317</v>
+        <v>382.9188801095401</v>
       </c>
       <c r="E4" t="n">
-        <v>344.8441386582317</v>
+        <v>227.3600679687425</v>
       </c>
       <c r="F4" t="n">
-        <v>344.8441386582317</v>
+        <v>227.3600679687425</v>
       </c>
       <c r="G4" t="n">
-        <v>176.5900847576772</v>
+        <v>227.3600679687425</v>
       </c>
       <c r="H4" t="n">
-        <v>176.5900847576772</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475507</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475507</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U4" t="n">
-        <v>944.9426819363074</v>
+        <v>657.5114775397919</v>
       </c>
       <c r="V4" t="n">
-        <v>678.9633367571316</v>
+        <v>391.5321323606162</v>
       </c>
       <c r="W4" t="n">
-        <v>500.4772517557169</v>
+        <v>391.5321323606162</v>
       </c>
       <c r="X4" t="n">
-        <v>500.4772517557169</v>
+        <v>391.5321323606162</v>
       </c>
       <c r="Y4" t="n">
-        <v>500.4772517557169</v>
+        <v>391.5321323606162</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1650.712604500227</v>
+        <v>1068.310850208848</v>
       </c>
       <c r="C5" t="n">
-        <v>1257.537103003158</v>
+        <v>675.135348711779</v>
       </c>
       <c r="D5" t="n">
-        <v>872.0959742198256</v>
+        <v>289.6942199284467</v>
       </c>
       <c r="E5" t="n">
-        <v>469.5124493363701</v>
+        <v>289.6942199284467</v>
       </c>
       <c r="F5" t="n">
-        <v>52.61801086634784</v>
+        <v>188.9627151354664</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475507</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475507</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475507</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035832</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310451</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L5" t="n">
-        <v>547.1277883310451</v>
+        <v>607.9173797052172</v>
       </c>
       <c r="M5" t="n">
-        <v>1085.386573341139</v>
+        <v>1121.520058314905</v>
       </c>
       <c r="N5" t="n">
-        <v>1613.197856978601</v>
+        <v>1635.122736924593</v>
       </c>
       <c r="O5" t="n">
-        <v>2053.23745787093</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737754</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737754</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023276</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964326</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="T5" t="n">
-        <v>1970.276500964326</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="U5" t="n">
-        <v>1970.276500964326</v>
+        <v>1781.416694537043</v>
       </c>
       <c r="V5" t="n">
-        <v>1970.276500964326</v>
+        <v>1439.309885240561</v>
       </c>
       <c r="W5" t="n">
-        <v>1970.276500964326</v>
+        <v>1068.310850208848</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.276500964326</v>
+        <v>1068.310850208848</v>
       </c>
       <c r="Y5" t="n">
-        <v>1970.276500964326</v>
+        <v>1068.310850208848</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>814.6611381042155</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C6" t="n">
-        <v>664.0069076643077</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163586</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272463</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>301.2401477103781</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822426</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284348</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475507</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144825</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767089</v>
+        <v>50.78821608954428</v>
       </c>
       <c r="L6" t="n">
-        <v>959.9158735750221</v>
+        <v>534.3543019878575</v>
       </c>
       <c r="M6" t="n">
-        <v>1423.897595591882</v>
+        <v>1047.956980597546</v>
       </c>
       <c r="N6" t="n">
-        <v>1423.897595591882</v>
+        <v>1561.559659207234</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.417878182863</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182863</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737754</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737754</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737754</v>
+        <v>1916.314617614855</v>
       </c>
       <c r="T6" t="n">
-        <v>1997.799157936662</v>
+        <v>1739.330805813764</v>
       </c>
       <c r="U6" t="n">
-        <v>1787.736014615304</v>
+        <v>1529.267662492405</v>
       </c>
       <c r="V6" t="n">
-        <v>1565.196012986371</v>
+        <v>1306.727660863472</v>
       </c>
       <c r="W6" t="n">
-        <v>1335.078767119658</v>
+        <v>1306.727660863472</v>
       </c>
       <c r="X6" t="n">
-        <v>1145.77168946967</v>
+        <v>1117.420583213484</v>
       </c>
       <c r="Y6" t="n">
-        <v>966.4574725451769</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1719.234858384656</v>
+        <v>391.5321323606162</v>
       </c>
       <c r="C7" t="n">
-        <v>1719.234858384656</v>
+        <v>221.3270144266054</v>
       </c>
       <c r="D7" t="n">
-        <v>1719.234858384656</v>
+        <v>65.69390132912014</v>
       </c>
       <c r="E7" t="n">
-        <v>1719.234858384656</v>
+        <v>65.69390132912014</v>
       </c>
       <c r="F7" t="n">
-        <v>1561.908923597629</v>
+        <v>65.69390132912014</v>
       </c>
       <c r="G7" t="n">
-        <v>1561.908923597629</v>
+        <v>65.69390132912014</v>
       </c>
       <c r="H7" t="n">
-        <v>1406.430372559123</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="I7" t="n">
-        <v>1273.335947196201</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J7" t="n">
-        <v>1273.335947196201</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K7" t="n">
-        <v>1355.170988306143</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>1519.298628179943</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>1705.590206518207</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>1888.779840549416</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>2051.484607591124</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>2171.360773367703</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>2174.782969737754</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>2174.782969737754</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>1971.966885920303</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>1736.247834088537</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>1736.247834088537</v>
+        <v>657.5114775397919</v>
       </c>
       <c r="V7" t="n">
-        <v>1719.234858384656</v>
+        <v>391.5321323606162</v>
       </c>
       <c r="W7" t="n">
-        <v>1719.234858384656</v>
+        <v>391.5321323606162</v>
       </c>
       <c r="X7" t="n">
-        <v>1719.234858384656</v>
+        <v>391.5321323606162</v>
       </c>
       <c r="Y7" t="n">
-        <v>1719.234858384656</v>
+        <v>391.5321323606162</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2058.57031924742</v>
+        <v>531.7095233437991</v>
       </c>
       <c r="C8" t="n">
-        <v>1665.394817750351</v>
+        <v>531.7095233437991</v>
       </c>
       <c r="D8" t="n">
-        <v>1279.953688967018</v>
+        <v>531.7095233437991</v>
       </c>
       <c r="E8" t="n">
-        <v>877.3701640835627</v>
+        <v>531.7095233437991</v>
       </c>
       <c r="F8" t="n">
-        <v>460.4757256135405</v>
+        <v>518.8554889141809</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4808,46 +4808,46 @@
         <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>864.7645682749193</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>2286.511411383737</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>2030.758681818335</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.64850507718</v>
+        <v>1688.651872521854</v>
       </c>
       <c r="W8" t="n">
-        <v>2365.64850507718</v>
+        <v>1317.652837490141</v>
       </c>
       <c r="X8" t="n">
-        <v>2365.64850507718</v>
+        <v>928.200232423198</v>
       </c>
       <c r="Y8" t="n">
-        <v>2365.64850507718</v>
+        <v>531.7095233437991</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>54.70361680265978</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>374.4427628648862</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>858.0088487631995</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="M9" t="n">
-        <v>1443.506853769802</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769802</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>326.6555679173272</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>326.6555679173272</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="F10" t="n">
         <v>47.31297010154361</v>
@@ -4987,25 +4987,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>713.0409408113302</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="U10" t="n">
-        <v>427.6021490532311</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="V10" t="n">
-        <v>161.6228038740554</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="W10" t="n">
-        <v>47.31297010154361</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154361</v>
+        <v>511.8635866086285</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>511.8635866086285</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2033.222718167679</v>
+        <v>1835.7043909011</v>
       </c>
       <c r="C11" t="n">
-        <v>1711.843491816804</v>
+        <v>1514.325164550224</v>
       </c>
       <c r="D11" t="n">
-        <v>1398.198638179665</v>
+        <v>1200.680310913086</v>
       </c>
       <c r="E11" t="n">
-        <v>1067.411388442404</v>
+        <v>869.893061175824</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185754</v>
+        <v>524.7948978519958</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527724</v>
+        <v>183.4284174861923</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654568</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.23910529302</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>3004.271952586836</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U11" t="n">
-        <v>3004.271952586836</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V11" t="n">
-        <v>3004.271952586836</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W11" t="n">
-        <v>3004.271952586836</v>
+        <v>2806.753625320257</v>
       </c>
       <c r="X11" t="n">
-        <v>2686.615622666087</v>
+        <v>2489.097295399508</v>
       </c>
       <c r="Y11" t="n">
-        <v>2361.921188732882</v>
+        <v>2164.402861466303</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5121,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>865.4243596646552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M12" t="n">
-        <v>865.4243596646552</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>1862.189031132337</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2267.810399848734</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>432.7532864677494</v>
+        <v>655.095209942062</v>
       </c>
       <c r="C13" t="n">
-        <v>334.3444436799324</v>
+        <v>556.686367154245</v>
       </c>
       <c r="D13" t="n">
-        <v>250.5076057286408</v>
+        <v>472.8495292029536</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1065660993092</v>
+        <v>389.0869922083499</v>
       </c>
       <c r="F13" t="n">
-        <v>158.5769064584761</v>
+        <v>303.5573325675167</v>
       </c>
       <c r="G13" t="n">
-        <v>62.11912770411553</v>
+        <v>207.099553813156</v>
       </c>
       <c r="H13" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774626</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581892</v>
+        <v>254.915484758189</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027732</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118218</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138161</v>
+        <v>999.6269248138155</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P13" t="n">
-        <v>1422.942916173672</v>
+        <v>1422.942916173671</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814508</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1365.712833143251</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="T13" t="n">
-        <v>1365.712833143251</v>
+        <v>1387.866667054685</v>
       </c>
       <c r="U13" t="n">
-        <v>1152.070316531346</v>
+        <v>1174.22415044278</v>
       </c>
       <c r="V13" t="n">
-        <v>957.8872464983638</v>
+        <v>980.0410804097979</v>
       </c>
       <c r="W13" t="n">
-        <v>746.3531195757353</v>
+        <v>768.5069534871694</v>
       </c>
       <c r="X13" t="n">
-        <v>584.0690725049121</v>
+        <v>768.5069534871694</v>
       </c>
       <c r="Y13" t="n">
-        <v>432.7532864677494</v>
+        <v>768.5069534871694</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1653.0370227692</v>
+        <v>2033.22271816768</v>
       </c>
       <c r="C14" t="n">
-        <v>1331.657796418324</v>
+        <v>1711.843491816804</v>
       </c>
       <c r="D14" t="n">
-        <v>1331.657796418324</v>
+        <v>1398.198638179665</v>
       </c>
       <c r="E14" t="n">
-        <v>1000.870546681062</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="F14" t="n">
-        <v>655.7723833572342</v>
+        <v>722.3132251185754</v>
       </c>
       <c r="G14" t="n">
-        <v>314.4059029914312</v>
+        <v>380.9467447527724</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411573</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="U14" t="n">
-        <v>3105.956385205776</v>
+        <v>3004.271952586837</v>
       </c>
       <c r="V14" t="n">
-        <v>2835.645851055488</v>
+        <v>3004.271952586837</v>
       </c>
       <c r="W14" t="n">
-        <v>2624.086257188357</v>
+        <v>3004.271952586837</v>
       </c>
       <c r="X14" t="n">
-        <v>2306.429927267608</v>
+        <v>2686.615622666088</v>
       </c>
       <c r="Y14" t="n">
-        <v>1981.735493334403</v>
+        <v>2361.921188732883</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>346.9752758473783</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L15" t="n">
-        <v>830.5413617456916</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M15" t="n">
-        <v>1458.313011372373</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>387.3198695621199</v>
+        <v>479.2406156985687</v>
       </c>
       <c r="C16" t="n">
-        <v>387.3198695621199</v>
+        <v>380.8317729107519</v>
       </c>
       <c r="D16" t="n">
-        <v>387.3198695621199</v>
+        <v>296.9949349594604</v>
       </c>
       <c r="E16" t="n">
-        <v>303.5573325675164</v>
+        <v>296.9949349594604</v>
       </c>
       <c r="F16" t="n">
-        <v>303.5573325675164</v>
+        <v>211.4652753186272</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131558</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="H16" t="n">
         <v>123.4172779208438</v>
@@ -5434,19 +5434,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774626</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118221</v>
       </c>
       <c r="N16" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138159</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5455,13 +5455,13 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
         <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922022</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T16" t="n">
         <v>1149.68534223645</v>
@@ -5470,16 +5470,16 @@
         <v>1149.68534223645</v>
       </c>
       <c r="V16" t="n">
-        <v>955.5022722034682</v>
+        <v>955.5022722034676</v>
       </c>
       <c r="W16" t="n">
-        <v>814.3314462152132</v>
+        <v>743.9681452808391</v>
       </c>
       <c r="X16" t="n">
-        <v>652.0473991443902</v>
+        <v>743.9681452808391</v>
       </c>
       <c r="Y16" t="n">
-        <v>500.7316131072274</v>
+        <v>592.6523592436762</v>
       </c>
     </row>
     <row r="17">
@@ -5507,7 +5507,7 @@
         <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5519,13 +5519,13 @@
         <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M17" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
@@ -5534,13 +5534,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5558,7 +5558,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5592,22 +5592,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>346.9752758473783</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L18" t="n">
-        <v>830.5413617456916</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M18" t="n">
-        <v>1458.313011372373</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N18" t="n">
-        <v>1458.313011372373</v>
+        <v>1458.783730761083</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>1975.304013352064</v>
       </c>
       <c r="P18" t="n">
         <v>2380.454662679751</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>67.69877031229871</v>
+        <v>67.69877031229927</v>
       </c>
       <c r="K19" t="n">
-        <v>149.5338114222406</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L19" t="n">
-        <v>313.6614512960404</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M19" t="n">
-        <v>499.9530296343044</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N19" t="n">
-        <v>683.1426636655136</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296503</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
         <v>1094.779966106229</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5735,13 +5735,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
         <v>68.7795079292422</v>
@@ -5786,10 +5786,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
@@ -5829,22 +5829,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M21" t="n">
-        <v>865.4243596646552</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N21" t="n">
-        <v>1521.202330875214</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O21" t="n">
-        <v>2037.722613466195</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P21" t="n">
         <v>2380.454662679751</v>
@@ -5914,22 +5914,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M22" t="n">
-        <v>621.3883893133159</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N22" t="n">
-        <v>804.578023344525</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O22" t="n">
-        <v>967.282790386233</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P22" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
-        <v>1090.581152532862</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5969,16 +5969,16 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
         <v>68.77950792924223</v>
@@ -6014,7 +6014,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6026,13 +6026,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M24" t="n">
-        <v>978.5393418843826</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6145,25 +6145,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>407.3644357128483</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>593.6560140511123</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N25" t="n">
-        <v>776.8456480823215</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O25" t="n">
-        <v>939.5504151240295</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P25" t="n">
-        <v>1059.426580900608</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
         <v>1098.20216247628</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424155</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214273</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718129</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218618</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390277</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.903663714219</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678973</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755033</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563785</v>
+        <v>218.0146318563783</v>
       </c>
       <c r="K26" t="n">
-        <v>576.9969878838403</v>
+        <v>576.9969878838401</v>
       </c>
       <c r="L26" t="n">
-        <v>1100.286794884797</v>
+        <v>1100.28679488479</v>
       </c>
       <c r="M26" t="n">
-        <v>1739.33905665895</v>
+        <v>1739.339056658944</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.201702025985</v>
+        <v>2360.20170202598</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647887</v>
+        <v>2893.292664647881</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508982</v>
+        <v>3334.531518508977</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.428440379503</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377516</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605755</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.11015245236</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174147</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164853</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420329</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640574</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848363</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6279,13 +6279,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>872.7308420875813</v>
+        <v>872.7308420875812</v>
       </c>
       <c r="C27" t="n">
-        <v>722.0766116476735</v>
+        <v>722.0766116476734</v>
       </c>
       <c r="D27" t="n">
-        <v>591.9876442691539</v>
+        <v>591.9876442691537</v>
       </c>
       <c r="E27" t="n">
         <v>455.5411533800415</v>
@@ -6294,46 +6294,46 @@
         <v>331.1093472631733</v>
       </c>
       <c r="G27" t="n">
-        <v>211.0495293350378</v>
+        <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755033</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
-        <v>186.4798411672777</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278174</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M27" t="n">
-        <v>989.7850731278174</v>
+        <v>1504.441740534771</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1640.815019777314</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368296</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
       </c>
       <c r="R27" t="n">
-        <v>2367.783350821251</v>
+        <v>2367.78335082125</v>
       </c>
       <c r="S27" t="n">
-        <v>2232.85267372112</v>
+        <v>2232.852673721119</v>
       </c>
       <c r="T27" t="n">
-        <v>2055.868861920028</v>
+        <v>2055.868861920027</v>
       </c>
       <c r="U27" t="n">
         <v>1845.80571859867</v>
@@ -6342,13 +6342,13 @@
         <v>1623.265716969737</v>
       </c>
       <c r="W27" t="n">
-        <v>1393.148471103024</v>
+        <v>1393.148471103023</v>
       </c>
       <c r="X27" t="n">
         <v>1203.841393453035</v>
       </c>
       <c r="Y27" t="n">
-        <v>1024.527176528543</v>
+        <v>1024.527176528542</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985363</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517137</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414167</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878073</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879684</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746021</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232843</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755033</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.528880919201</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.707882522574</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904111</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N28" t="n">
-        <v>1124.291818351193</v>
+        <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
         <v>1380.047947122475</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628626</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728254</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
-        <v>1660.488724648019</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117757</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T28" t="n">
-        <v>1411.834951573179</v>
+        <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102268</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
-        <v>1050.298177210281</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286467</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.768815498818</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026495</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6446,13 +6446,13 @@
         <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218606</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390267</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142183</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,22 +6461,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563784</v>
+        <v>247.9841471388008</v>
       </c>
       <c r="K29" t="n">
-        <v>670.0483496134135</v>
+        <v>700.0178648958359</v>
       </c>
       <c r="L29" t="n">
-        <v>1256.420003061516</v>
+        <v>1286.389518343938</v>
       </c>
       <c r="M29" t="n">
-        <v>1895.47226483567</v>
+        <v>1925.441780118092</v>
       </c>
       <c r="N29" t="n">
-        <v>2516.334910202705</v>
+        <v>2546.304425485127</v>
       </c>
       <c r="O29" t="n">
-        <v>3049.425872824607</v>
+        <v>3079.395388107029</v>
       </c>
       <c r="P29" t="n">
         <v>3427.582880238551</v>
@@ -6540,25 +6540,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M30" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P30" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6598,37 +6598,37 @@
         <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517127</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414158</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746018</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6661,10 +6661,10 @@
         <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222133</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654428</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.55561980046</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463684</v>
+        <v>904.3560533993077</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057104</v>
+        <v>601.3807258108106</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230778</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189326</v>
+        <v>91.97314162835499</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076173</v>
+        <v>67.55513560234509</v>
       </c>
       <c r="J32" t="n">
-        <v>319.4704138766597</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>678.4527699041216</v>
+        <v>682.8393851136179</v>
       </c>
       <c r="L32" t="n">
-        <v>1171.77306162265</v>
+        <v>1176.159676832147</v>
       </c>
       <c r="M32" t="n">
-        <v>1803.184144513245</v>
+        <v>1722.160576876727</v>
       </c>
       <c r="N32" t="n">
-        <v>2330.995428150708</v>
+        <v>2361.623981089172</v>
       </c>
       <c r="O32" t="n">
-        <v>2771.035029043036</v>
+        <v>2844.723727844784</v>
       </c>
       <c r="P32" t="n">
-        <v>3119.222521174558</v>
+        <v>3192.911219976306</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042576</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038086</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908501</v>
+        <v>3325.16233593983</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397282</v>
+        <v>3215.580844380772</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761245</v>
+        <v>3073.747225696896</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394128</v>
+        <v>2845.55952728194</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.55749529178</v>
+        <v>2588.479603131752</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.5154531542</v>
+        <v>2312.946108946334</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004166</v>
+        <v>2030.37451074846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282492</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076173</v>
+        <v>67.55513560234509</v>
       </c>
       <c r="J33" t="n">
-        <v>182.6625304604891</v>
+        <v>67.55513560234509</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227155</v>
+        <v>387.2942816645715</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>870.8603675628848</v>
       </c>
       <c r="M33" t="n">
-        <v>1613.73941204771</v>
+        <v>1463.749019270603</v>
       </c>
       <c r="N33" t="n">
-        <v>1747.89662294511</v>
+        <v>1463.749019270603</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1980.269301861584</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965152</v>
+        <v>365.6713676929713</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918686</v>
+        <v>309.3853606404858</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237476</v>
+        <v>267.6713584245259</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123143</v>
+        <v>226.0316571652536</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546515</v>
+        <v>182.6248332597519</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834614</v>
+        <v>128.2898902407227</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431959</v>
+        <v>86.73045008374193</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076173</v>
+        <v>67.55513560234509</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703942</v>
+        <v>149.4335135798905</v>
       </c>
       <c r="K34" t="n">
-        <v>226.881939480336</v>
+        <v>337.0682132920793</v>
       </c>
       <c r="L34" t="n">
-        <v>496.2826720812057</v>
+        <v>612.847973740862</v>
       </c>
       <c r="M34" t="n">
-        <v>682.5742504194698</v>
+        <v>910.7916726541089</v>
       </c>
       <c r="N34" t="n">
-        <v>884.2912083771016</v>
+        <v>1093.981306685318</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.26906814588</v>
+        <v>1256.686073727026</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649528</v>
+        <v>1376.562239503605</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746649</v>
+        <v>1379.984435873655</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.62318930859</v>
+        <v>1370.002557387758</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420504</v>
+        <v>1281.105584451832</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518102</v>
+        <v>1159.305643501592</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689367</v>
+        <v>987.785962625018</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395555</v>
+        <v>835.7257283273675</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000973</v>
+        <v>666.3144371400704</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124446</v>
+        <v>546.1532258045787</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584522</v>
+        <v>436.9602755027473</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H35" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6962,7 +6962,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6971,16 +6971,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
         <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="36">
@@ -7023,10 +7023,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
         <v>1740.468202408463</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7108,13 +7108,13 @@
         <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>840.2677880990384</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P37" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q37" t="n">
-        <v>1092.622519868096</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7166,25 +7166,25 @@
         <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924217</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J38" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K38" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L38" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M38" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N38" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O38" t="n">
         <v>2572.923332933306</v>
@@ -7202,19 +7202,19 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
         <v>1882.877496443165</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7333,7 +7333,7 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L40" t="n">
         <v>437.1381783102858</v>
@@ -7342,40 +7342,40 @@
         <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O40" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P40" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q40" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161894</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974517</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7403,7 +7403,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924214</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7436,7 +7436,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
@@ -7448,13 +7448,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="42">
@@ -7497,7 +7497,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218799</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072654</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462908</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7579,40 +7579,40 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N43" t="n">
-        <v>806.6193906797591</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O43" t="n">
-        <v>969.3241577214671</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P43" t="n">
-        <v>1089.200323498046</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q43" t="n">
-        <v>1092.622519868097</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U43" t="n">
-        <v>769.258445116189</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W43" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974515</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D44" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975438</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F44" t="n">
-        <v>542.67184050993</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G44" t="n">
-        <v>261.1858216803421</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924231</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7676,7 +7676,7 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
         <v>2855.219708188068</v>
@@ -7685,13 +7685,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y44" t="n">
-        <v>1882.877496443164</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N45" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.93197918856</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369576</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218807</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634917</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F46" t="n">
-        <v>123.915947958873</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G46" t="n">
-        <v>87.3386307407269</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462925</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7807,49 +7807,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>270.9691711012539</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>435.0968109750537</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M46" t="n">
-        <v>621.3883893133177</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N46" t="n">
-        <v>804.5780233445269</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O46" t="n">
-        <v>967.2827903862349</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P46" t="n">
-        <v>1087.158956162813</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q46" t="n">
-        <v>1090.581152532864</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476282</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918818</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161911</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194237</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330097</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984012</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974529</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
   </sheetData>
@@ -7982,22 +7982,22 @@
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>277.7768138244423</v>
+        <v>668.5156360519577</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920146</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>159.1611234709534</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8064,19 +8064,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>151.3369738679609</v>
+        <v>611.1777065035424</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>604.1626973083971</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>183.6305080413536</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,25 +8213,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>362.7752171258623</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321658</v>
+        <v>668.5156360519577</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920146</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>273.0746915508486</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8292,28 +8292,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>98.97569223556147</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>561.0555281269484</v>
+        <v>611.1777065035424</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>604.1626973083971</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431194</v>
       </c>
       <c r="P6" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8456,22 +8456,22 @@
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>616.3484143223238</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>149.7250515977273</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>633.9592855728719</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,19 +8529,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>89.90975703143043</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>234.9862648617782</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8550,7 +8550,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8769,16 +8769,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8787,7 +8787,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>204.7702368236083</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9006,16 +9006,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>377.3304183063261</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>624.8237719316268</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9024,7 +9024,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9167,7 +9167,7 @@
         <v>505.666843611017</v>
       </c>
       <c r="L17" t="n">
-        <v>651.5514946987026</v>
+        <v>651.5514946987036</v>
       </c>
       <c r="M17" t="n">
         <v>701.2411122488187</v>
@@ -9240,25 +9240,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>377.3304183063261</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>496.3264449482919</v>
       </c>
       <c r="Q18" t="n">
         <v>90.98815315591399</v>
@@ -9477,16 +9477,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.2265410010273</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
         <v>747.7741039759435</v>
@@ -9495,7 +9495,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>433.2773539239171</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
         <v>90.98815315591399</v>
@@ -9714,19 +9714,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>333.2595653118431</v>
+        <v>538.5873532373481</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9735,7 +9735,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9951,7 +9951,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9960,16 +9960,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>333.2595653118431</v>
+        <v>223.1228999678465</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
         <v>327.7205688679246</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10200,7 +10200,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>333.2595653118427</v>
+        <v>684.2495388215578</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10209,7 +10209,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,7 +10425,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10434,19 +10434,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>691.2645480167038</v>
       </c>
       <c r="N33" t="n">
-        <v>220.8844470939643</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10671,13 +10671,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N36" t="n">
-        <v>220.8844470939643</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
@@ -11145,10 +11145,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N42" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11373,19 +11373,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N45" t="n">
-        <v>373.1055958271594</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -11394,7 +11394,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>129.6677106501864</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372793</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.77010711362806</v>
       </c>
       <c r="T11" t="n">
-        <v>143.2898028423232</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>76.58788239161932</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338901</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456094</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901686</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>106.089900985509</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="14">
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372786</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362799</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>175.2194086958931</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W14" t="n">
-        <v>86.76673435820305</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993872</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177844</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.9249116246576</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442482</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>8.325683543011749</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338904</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23707,16 +23707,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>69.65966792502972</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1201062.076981082</v>
+        <v>1200761.303174202</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1201062.076981082</v>
+        <v>1200761.303174202</v>
       </c>
     </row>
     <row r="4">
@@ -26314,28 +26314,28 @@
         <v>72132.87123734271</v>
       </c>
       <c r="C2" t="n">
-        <v>72132.87123734276</v>
+        <v>72132.87123734271</v>
       </c>
       <c r="D2" t="n">
+        <v>72132.87123734273</v>
+      </c>
+      <c r="E2" t="n">
+        <v>63743.60936976021</v>
+      </c>
+      <c r="F2" t="n">
+        <v>63743.60936976023</v>
+      </c>
+      <c r="G2" t="n">
         <v>72132.87123734274</v>
-      </c>
-      <c r="E2" t="n">
-        <v>63743.60936976025</v>
-      </c>
-      <c r="F2" t="n">
-        <v>63743.60936976024</v>
-      </c>
-      <c r="G2" t="n">
-        <v>72132.87123734267</v>
       </c>
       <c r="H2" t="n">
         <v>72132.87123734268</v>
       </c>
       <c r="I2" t="n">
-        <v>72132.8712373427</v>
+        <v>72132.87123734271</v>
       </c>
       <c r="J2" t="n">
-        <v>72132.8712373426</v>
+        <v>72132.87123734261</v>
       </c>
       <c r="K2" t="n">
         <v>72132.87123734257</v>
@@ -26344,16 +26344,16 @@
         <v>72132.87123734271</v>
       </c>
       <c r="M2" t="n">
+        <v>72132.87123734273</v>
+      </c>
+      <c r="N2" t="n">
         <v>72132.87123734268</v>
       </c>
-      <c r="N2" t="n">
-        <v>72132.8712373427</v>
-      </c>
       <c r="O2" t="n">
-        <v>72132.87123734268</v>
+        <v>72132.87123734271</v>
       </c>
       <c r="P2" t="n">
-        <v>72132.87123734264</v>
+        <v>72132.87123734273</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918563</v>
+        <v>173858.6570340551</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062151</v>
+        <v>22558.42953401351</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668196</v>
+        <v>47425.32553668198</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945029</v>
+        <v>200285.8640399293</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728528</v>
+        <v>62456.24177539683</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962296</v>
+        <v>43252.52447081121</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277109</v>
+        <v>27767.69404277117</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178075.8047892382</v>
+        <v>184487.2052585816</v>
       </c>
       <c r="C4" t="n">
-        <v>178075.8047892382</v>
+        <v>184487.2052585816</v>
       </c>
       <c r="D4" t="n">
         <v>165792.0503172815</v>
       </c>
       <c r="E4" t="n">
+        <v>86988.78851589419</v>
+      </c>
+      <c r="F4" t="n">
         <v>86988.78851589424</v>
-      </c>
-      <c r="F4" t="n">
-        <v>86988.78851589427</v>
       </c>
       <c r="G4" t="n">
         <v>134747.7050074764</v>
       </c>
       <c r="H4" t="n">
-        <v>134747.7050074764</v>
+        <v>134747.7050074765</v>
       </c>
       <c r="I4" t="n">
         <v>134747.7050074764</v>
@@ -26442,19 +26442,19 @@
         <v>135498.1974718596</v>
       </c>
       <c r="K4" t="n">
-        <v>135498.1974718595</v>
+        <v>135498.1974718596</v>
       </c>
       <c r="L4" t="n">
-        <v>135242.6235713762</v>
+        <v>135109.2289623215</v>
       </c>
       <c r="M4" t="n">
         <v>134747.7050074764</v>
       </c>
       <c r="N4" t="n">
-        <v>134747.7050074765</v>
+        <v>134747.7050074764</v>
       </c>
       <c r="O4" t="n">
-        <v>134747.7050074765</v>
+        <v>134747.7050074764</v>
       </c>
       <c r="P4" t="n">
         <v>134747.7050074764</v>
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001385</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001385</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>53186.01969984052</v>
+        <v>53186.01969984051</v>
       </c>
       <c r="F5" t="n">
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="H5" t="n">
         <v>58169.76931551966</v>
@@ -26491,13 +26491,13 @@
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.04525391954</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173855</v>
+        <v>60823.19813315422</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26506,10 +26506,10 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-354832.1829837657</v>
+        <v>-351383.0585901111</v>
       </c>
       <c r="C6" t="n">
-        <v>-172627.2346919093</v>
+        <v>-177524.4015560561</v>
       </c>
       <c r="D6" t="n">
-        <v>-178066.7766677334</v>
+        <v>-185803.0658911255</v>
       </c>
       <c r="E6" t="n">
-        <v>-188553.760320019</v>
+        <v>-188763.4918667086</v>
       </c>
       <c r="F6" t="n">
-        <v>-76431.19884597455</v>
+        <v>-76640.93039266412</v>
       </c>
       <c r="G6" t="n">
-        <v>-168209.9286223354</v>
+        <v>-168209.9286223353</v>
       </c>
       <c r="H6" t="n">
-        <v>-120784.6030856534</v>
+        <v>-120784.6030856535</v>
       </c>
       <c r="I6" t="n">
         <v>-120784.6030856534</v>
       </c>
       <c r="J6" t="n">
-        <v>-333826.5206829395</v>
+        <v>-327310.2355283657</v>
       </c>
       <c r="K6" t="n">
-        <v>-127024.3714884364</v>
+        <v>-127024.3714884365</v>
       </c>
       <c r="L6" t="n">
-        <v>-182206.9604230573</v>
+        <v>-186255.7976335298</v>
       </c>
       <c r="M6" t="n">
-        <v>-162985.4325452764</v>
+        <v>-164037.1275564646</v>
       </c>
       <c r="N6" t="n">
         <v>-120784.6030856534</v>
       </c>
       <c r="O6" t="n">
-        <v>-148552.2971284245</v>
+        <v>-148552.2971284246</v>
       </c>
       <c r="P6" t="n">
         <v>-120784.6030856534</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431628</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000706</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344384</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344384</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26802,7 +26802,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="H4" t="n">
         <v>776.4890963014441</v>
@@ -26811,13 +26811,13 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443791</v>
+        <v>917.060736844378</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095216</v>
+        <v>844.4391950293136</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085246</v>
+        <v>59.28165692085247</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346384</v>
+        <v>34.70961755346399</v>
       </c>
       <c r="K2" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660661</v>
+        <v>78.07030221924603</v>
       </c>
       <c r="M2" t="n">
-        <v>24.0235120155138</v>
+        <v>17.58004954287439</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346386</v>
+        <v>34.70961755346396</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344384</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485663</v>
+        <v>72.62154181506457</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773732</v>
+        <v>659.3622249971644</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407152</v>
+        <v>117.1268713042796</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085246</v>
+        <v>59.28165692085247</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346384</v>
+        <v>34.70961755346399</v>
       </c>
       <c r="P2" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344384</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485663</v>
+        <v>72.62154181506457</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,16 +27379,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>137.9175064224592</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -27436,10 +27436,10 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>367.2523613336713</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
@@ -27464,19 +27464,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>17.42514118924916</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27521,7 +27521,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>146.7476534956808</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27540,25 +27540,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>145.549662237945</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27591,13 +27591,13 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>103.7958738967336</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80.12154075482505</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,10 +27622,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>313.0013043402715</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
@@ -27698,7 +27698,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>27.9184993862648</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27755,13 +27755,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>54.013606067856</v>
       </c>
     </row>
     <row r="7">
@@ -27774,25 +27774,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>129.9750175010671</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27822,16 +27822,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>246.476705780542</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>92.48239428282</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>180.5328582370017</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>33.28028556804146</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
@@ -28059,22 +28059,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>167.3303626133475</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473188</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473188</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="17">
@@ -28743,7 +28743,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>35.71049010668753</v>
+        <v>35.7104901066881</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28986,16 +28986,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M22" t="n">
-        <v>128.2979821082774</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>5.63600263452858</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29004,7 +29004,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29217,28 +29217,28 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5.636002634529063</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
       <c r="Q25" t="n">
-        <v>35.71049010668797</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>122.6619794737488</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431628</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431628</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431628</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431628</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431628</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431628</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431628</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431628</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29302,46 +29302,46 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>30.27223765901749</v>
+        <v>30.27223765901135</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431628</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431628</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431628</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431628</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431628</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431628</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431628</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431628</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431628</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431628</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431628</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431628</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431628</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431628</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431628</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431628</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431628</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431628</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431628</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431628</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431628</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431628</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431628</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431628</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431628</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431628</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431628</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431628</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447432025</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431628</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431628</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431628</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431628</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431628</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431628</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431628</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431628</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="29">
@@ -29533,7 +29533,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>30.2722376590126</v>
       </c>
       <c r="K29" t="n">
         <v>93.99127447431646</v>
@@ -29551,7 +29551,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>30.27223765901232</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000706</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000706</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000706</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000706</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000706</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000706</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000706</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000706</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J32" t="n">
-        <v>106.3364573000706</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>86.27291196567114</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>43.49509683159926</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000706</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000706</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000706</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000706</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000706</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000706</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000706</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000706</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000706</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000706</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000706</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000706</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000706</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000706</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000706</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000706</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000706</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000706</v>
+        <v>112.77991977271</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>106.8683420224717</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000706</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="N34" t="n">
-        <v>18.71446861254813</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000706</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000706</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000706</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000706</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000706</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000706</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000706</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000706</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000706</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000706</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000706</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="35">
@@ -30180,16 +30180,16 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>128.2979821082778</v>
       </c>
       <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>128.2979821082774</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30405,16 +30405,16 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>5.63600263452858</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -30426,7 +30426,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>128.297982108277</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
         <v>30.07448747215907</v>
@@ -30651,7 +30651,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>130.3599693155845</v>
+        <v>128.2979821082778</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>128.2979821082765</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="S43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="45">
@@ -30852,37 +30852,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
-        <v>128.2979821082793</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -30894,34 +30894,34 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>130.3599693155843</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
   </sheetData>
@@ -34702,22 +34702,22 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>128.0517622267151</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>9.597286046856986</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34784,19 +34784,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>58.94985181864901</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>90.94294915246475</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>209.5270473953706</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344384</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>122.7732443099234</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>9.378756902228117</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>468.6684060776365</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,22 +35176,22 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>463.1002445918322</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>484.8407942350878</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.465299698097082</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>144.92591800486</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>591.4121262692951</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35270,7 +35270,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,16 +35489,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35507,7 +35507,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>113.7820836676943</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257281</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35574,19 +35574,19 @@
         <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
-        <v>259.2516238475239</v>
+        <v>259.2516238475238</v>
       </c>
       <c r="N13" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318107</v>
       </c>
       <c r="P13" t="n">
-        <v>192.1653485326901</v>
+        <v>192.16534853269</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488436</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,16 +35726,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7334829729927</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>539.4516590774601</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35744,7 +35744,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257288</v>
+        <v>41.00382492257284</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488444</v>
+        <v>74.53507640488439</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
-        <v>498.3033249682109</v>
+        <v>498.3033249682118</v>
       </c>
       <c r="M17" t="n">
         <v>551.5160606510915</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7334829729927</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>409.2430801289772</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.636002634528463</v>
+        <v>5.63600263452903</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
@@ -36054,7 +36054,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>294.7082188526633</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>113.782083667694</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
         <v>662.4019911217769</v>
@@ -36215,7 +36215,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>346.1939891046024</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36282,16 +36282,16 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M22" t="n">
-        <v>316.4712935610694</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716074</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
@@ -36300,7 +36300,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>7.697989841835607</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>247.8874524576764</v>
+        <v>453.2152403831814</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36455,7 +36455,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
@@ -36522,7 +36522,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>188.1733114527919</v>
+        <v>193.809314087321</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36531,10 +36531,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.16725411684045</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>528.5755626272285</v>
+        <v>528.5755626272223</v>
       </c>
       <c r="M26" t="n">
-        <v>645.5073351254077</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>627.1339852192274</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201025</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>445.695811980904</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853754</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698301</v>
+        <v>56.3782898969832</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36680,16 +36680,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>247.8874524576764</v>
+        <v>137.7507871136798</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>236.7324157120106</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215721</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6529321611263</v>
+        <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963363</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
-        <v>282.1645859271082</v>
+        <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492751</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
-        <v>258.3395240113952</v>
+        <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122744</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848447273</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>176.3831193851016</v>
       </c>
       <c r="K29" t="n">
         <v>456.5997149060961</v>
@@ -36847,7 +36847,7 @@
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>381.9767751656</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
         <v>186.7126870110591</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36920,7 +36920,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>247.8874524576761</v>
+        <v>598.8774259673912</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36929,7 +36929,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>252.4473390261596</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>475.3883602044896</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>637.7889726167626</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449111</v>
+        <v>645.9226305176212</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>487.9795421773856</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111297</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273733</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
@@ -37154,19 +37154,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>598.8774259673919</v>
       </c>
       <c r="N33" t="n">
-        <v>135.5123342397976</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791154</v>
+        <v>82.70543230055094</v>
       </c>
       <c r="K34" t="n">
-        <v>82.66165768680997</v>
+        <v>189.5299997092816</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220906</v>
+        <v>278.56541459473</v>
       </c>
       <c r="M34" t="n">
-        <v>188.1733114527919</v>
+        <v>300.953231225502</v>
       </c>
       <c r="N34" t="n">
-        <v>203.7545029875069</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371495</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380288</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102231</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37391,13 +37391,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N36" t="n">
-        <v>135.5123342397976</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
@@ -37476,16 +37476,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>164.3482495370789</v>
+        <v>292.6462316453567</v>
       </c>
       <c r="P37" t="n">
-        <v>251.4470054535426</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>5.636002634528635</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37701,16 +37701,16 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L40" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094874</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>5.636002634528176</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37865,10 +37865,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N42" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37947,7 +37947,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
-        <v>315.4000036905433</v>
+        <v>313.3380164832366</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
@@ -37959,7 +37959,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>5.636002634527716</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N45" t="n">
-        <v>287.7334829729927</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38114,7 +38114,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>210.9596397950893</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M46" t="n">
         <v>188.1733114527919</v>
@@ -38190,13 +38190,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724872</v>
       </c>
       <c r="Q46" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>7.697989841835494</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
